--- a/biology/Histoire de la zoologie et de la botanique/Peter_Jackson_(écrivain)/Peter_Jackson_(écrivain).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Jackson_(écrivain)/Peter_Jackson_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peter_Jackson_(%C3%A9crivain)</t>
+          <t>Peter_Jackson_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Jackson, né le 27 janvier 1926 à Londres et mort le 8 décembre 2016, est un écrivain et photographe britannique, diplômé de l'université de Cambridge. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peter_Jackson_(%C3%A9crivain)</t>
+          <t>Peter_Jackson_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spécialiste des félins, Peter Jackson a été directeur de l'information au fonds mondial pour la Nature (WWF) et du groupe spécialiste des félins de l'Union internationale pour la conservation de la nature (UICN)[1]. Correspondant du sous-continent indien pour l'agence Reuters, il a également collaboré avec la BBC.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialiste des félins, Peter Jackson a été directeur de l'information au fonds mondial pour la Nature (WWF) et du groupe spécialiste des félins de l'Union internationale pour la conservation de la nature (UICN). Correspondant du sous-continent indien pour l'agence Reuters, il a également collaboré avec la BBC.
 En 1956, Peter Jackson et son épouse Adrienne Farrell Jackson rencontrent en tant que correspondants de Reuters le dalaï-lama en visite en Inde pour le 2500e anniversaire de la mort du Bouddha. 
-En 1959, Jackson et Farrell font un scoop avec leurs reportages exclusifs sur la fuite du dalaï-lama du Tibet dans une tempête de poussière et son arrivée en Inde en 1959[2],[3]. 
-Il a publié de nombreux ouvrages sur les félins et leur sauvegarde. Le nom scientifique du tigre de Malaisie Panthera tigris jacksoni a été donné en son honneur[4].
+En 1959, Jackson et Farrell font un scoop avec leurs reportages exclusifs sur la fuite du dalaï-lama du Tibet dans une tempête de poussière et son arrivée en Inde en 1959,. 
+Il a publié de nombreux ouvrages sur les félins et leur sauvegarde. Le nom scientifique du tigre de Malaisie Panthera tigris jacksoni a été donné en son honneur.
 </t>
         </is>
       </c>
